--- a/out/CE/Cold/C/outk_10algorithm_32.xlsx
+++ b/out/CE/Cold/C/outk_10algorithm_32.xlsx
@@ -354,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CV10"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV10"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="CW1" sqref="CW1:CW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:101">
       <c r="A1">
         <v>0.66052</v>
       </c>
@@ -663,8 +663,12 @@
       <c r="CV1">
         <v>0.43074000000000001</v>
       </c>
+      <c r="CW1">
+        <f>AVERAGE(A1:CV1)</f>
+        <v>0.47001959999999998</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:101">
       <c r="A2">
         <v>0.43863999999999997</v>
       </c>
@@ -965,8 +969,12 @@
       <c r="CV2">
         <v>0.61192000000000002</v>
       </c>
+      <c r="CW2">
+        <f t="shared" ref="CW2:CW10" si="0">AVERAGE(A2:CV2)</f>
+        <v>0.54966919999999986</v>
+      </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:101">
       <c r="A3">
         <v>0.45628000000000002</v>
       </c>
@@ -1267,8 +1275,12 @@
       <c r="CV3">
         <v>0.50375999999999999</v>
       </c>
+      <c r="CW3">
+        <f t="shared" si="0"/>
+        <v>0.48646520000000015</v>
+      </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:101">
       <c r="A4">
         <v>0.49784</v>
       </c>
@@ -1569,8 +1581,12 @@
       <c r="CV4">
         <v>0.39182</v>
       </c>
+      <c r="CW4">
+        <f t="shared" si="0"/>
+        <v>0.48328779999999988</v>
+      </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:101">
       <c r="A5">
         <v>0.50227999999999995</v>
       </c>
@@ -1871,8 +1887,12 @@
       <c r="CV5">
         <v>0.44084000000000001</v>
       </c>
+      <c r="CW5">
+        <f t="shared" si="0"/>
+        <v>0.50118000000000018</v>
+      </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:101">
       <c r="A6">
         <v>0.54054000000000002</v>
       </c>
@@ -2173,8 +2193,12 @@
       <c r="CV6">
         <v>0.50170000000000003</v>
       </c>
+      <c r="CW6">
+        <f t="shared" si="0"/>
+        <v>0.51446300000000011</v>
+      </c>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:101">
       <c r="A7">
         <v>0.52849999999999997</v>
       </c>
@@ -2475,8 +2499,12 @@
       <c r="CV7">
         <v>0.41455999999999998</v>
       </c>
+      <c r="CW7">
+        <f t="shared" si="0"/>
+        <v>0.52479700000000018</v>
+      </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:101">
       <c r="A8">
         <v>0.62128000000000005</v>
       </c>
@@ -2777,8 +2805,12 @@
       <c r="CV8">
         <v>0.53656000000000004</v>
       </c>
+      <c r="CW8">
+        <f t="shared" si="0"/>
+        <v>0.53404359999999995</v>
+      </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:101">
       <c r="A9">
         <v>0.55798000000000003</v>
       </c>
@@ -3079,8 +3111,12 @@
       <c r="CV9">
         <v>0.48836000000000002</v>
       </c>
+      <c r="CW9">
+        <f t="shared" si="0"/>
+        <v>0.52943539999999989</v>
+      </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:101">
       <c r="A10">
         <v>0.51175999999999999</v>
       </c>
@@ -3380,6 +3416,10 @@
       </c>
       <c r="CV10">
         <v>0.48270000000000002</v>
+      </c>
+      <c r="CW10">
+        <f t="shared" si="0"/>
+        <v>0.51356979999999985</v>
       </c>
     </row>
   </sheetData>
